--- a/MyCheckBook_backend/data/reports/test.xlsx
+++ b/MyCheckBook_backend/data/reports/test.xlsx
@@ -1,18 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="合并财报" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="合并财报" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>损益表</t>
+  </si>
+  <si>
+    <t>收入（元）</t>
+  </si>
+  <si>
+    <t>支出（元）</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>原价（元）</t>
+  </si>
+  <si>
+    <t>现价（元）</t>
+  </si>
+  <si>
+    <t>E象限</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    工资(CC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    生活费账户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    工资(MM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    doodads账户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    住房账户</t>
+  </si>
+  <si>
+    <t>S象限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    教育基金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    比赛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    风险备付金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    捡钱</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>B象限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    股票账户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    基金定投</t>
+  </si>
+  <si>
+    <t>I象限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    杠杆利息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    利息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    股票</t>
+  </si>
+  <si>
+    <t>储蓄账户</t>
+  </si>
+  <si>
+    <t>总收入</t>
+  </si>
+  <si>
+    <t>总支出</t>
+  </si>
+  <si>
+    <t>银行卡明细表</t>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>现价</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>所属账户</t>
+  </si>
+  <si>
+    <t>建行卡（CC）</t>
+  </si>
+  <si>
+    <t>打发</t>
+  </si>
+  <si>
+    <t>花销账户-生活费</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,15 +230,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -438,19 +558,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="18"/>
+    <col customWidth="1" max="4" min="4" width="18"/>
+    <col customWidth="1" max="5" min="5" width="18"/>
+    <col customWidth="1" max="6" min="6" width="18"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>损益表</t>
-        </is>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
@@ -458,59 +584,41 @@
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>收入（元）</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>支出（元）</t>
-        </is>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>原价（元）</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>现价（元）</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>原价（元）</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>现价（元）</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>E象限</t>
-        </is>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>12398.98</v>
@@ -518,10 +626,8 @@
       <c r="C5" s="5" t="n">
         <v>1290.98</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>消费</t>
-        </is>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>12398.98</v>
@@ -530,11 +636,9 @@
         <v>1290.98</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>    工资(CC)</t>
-        </is>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>12830</v>
@@ -542,10 +646,8 @@
       <c r="C6" s="7" t="n">
         <v>12908</v>
       </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>    生活费账户</t>
-        </is>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>12830</v>
@@ -554,11 +656,9 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>    工资(MM)</t>
-        </is>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>12830</v>
@@ -566,10 +666,8 @@
       <c r="C7" s="7" t="n">
         <v>12908</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>    doodads账户</t>
-        </is>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>12830</v>
@@ -578,14 +676,12 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>    住房账户</t>
-        </is>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s"/>
+      <c r="B8" t="s"/>
+      <c r="C8" s="7" t="s"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>12830</v>
@@ -594,11 +690,9 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>S象限</t>
-        </is>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>12398.98</v>
@@ -606,10 +700,8 @@
       <c r="C9" s="5" t="n">
         <v>1290.98</v>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>    教育基金</t>
-        </is>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>12830</v>
@@ -618,11 +710,9 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>    比赛</t>
-        </is>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>30</v>
@@ -630,10 +720,8 @@
       <c r="C10" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>    风险备付金</t>
-        </is>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>12830</v>
@@ -642,11 +730,9 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>    捡钱</t>
-        </is>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>2830</v>
@@ -654,18 +740,16 @@
       <c r="C11" s="7" t="n">
         <v>2908</v>
       </c>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>投资</t>
-        </is>
+      <c r="D11" s="6" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" s="7" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" s="7" t="s"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>12398.98</v>
@@ -674,11 +758,9 @@
         <v>1290.98</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>B象限</t>
-        </is>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>0</v>
@@ -686,10 +768,8 @@
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>    股票账户</t>
-        </is>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -698,14 +778,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>    基金定投</t>
-        </is>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s"/>
+      <c r="B14" t="s"/>
+      <c r="C14" s="7" t="s"/>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v>2830</v>
@@ -714,11 +792,9 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>I象限</t>
-        </is>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>12398.98</v>
@@ -726,10 +802,8 @@
       <c r="C15" s="5" t="n">
         <v>1290.98</v>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>    杠杆利息</t>
-        </is>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>2830</v>
@@ -738,11 +812,9 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>    利息</t>
-        </is>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>30</v>
@@ -750,15 +822,13 @@
       <c r="C16" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>    股票</t>
-        </is>
+      <c r="D16" s="6" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" s="7" t="s"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>2830</v>
@@ -766,10 +836,8 @@
       <c r="C17" s="7" t="n">
         <v>2908</v>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>储蓄账户</t>
-        </is>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -778,43 +846,580 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>总收入</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s"/>
+      <c r="B18" t="s"/>
+      <c r="C18" s="7" t="s"/>
+      <c r="D18" s="6" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" s="7" t="s"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>12398.98</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="8" t="n">
         <v>1290.89</v>
       </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>总支出</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="n">
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="n">
         <v>12398.98</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="8" t="n">
         <v>1290.89</v>
       </c>
     </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>1290.98</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1290.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12830</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>12908</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12830</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12830</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>12908</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12830</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s"/>
+      <c r="B28" t="s"/>
+      <c r="C28" s="7" t="s"/>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12830</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>1290.98</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12830</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12830</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D31" s="6" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" s="7" t="s"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s"/>
+      <c r="B32" t="s"/>
+      <c r="C32" s="7" t="s"/>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1290.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s"/>
+      <c r="B34" t="s"/>
+      <c r="C34" s="7" t="s"/>
+      <c r="D34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>1290.98</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" s="7" t="s"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s"/>
+      <c r="B38" t="s"/>
+      <c r="C38" s="7" t="s"/>
+      <c r="D38" s="6" t="s"/>
+      <c r="E38" t="s"/>
+      <c r="F38" s="7" t="s"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1290.89</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>12398.98</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>1290.89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C44" t="n">
+        <v>789</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C45" t="n">
+        <v>789</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C46" t="n">
+        <v>789</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C47" t="n">
+        <v>789</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C48" t="n">
+        <v>789</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9" t="n"/>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C53" t="n">
+        <v>789</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C54" t="n">
+        <v>789</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C55" t="n">
+        <v>789</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C56" t="n">
+        <v>789</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12367</v>
+      </c>
+      <c r="C57" t="n">
+        <v>789</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9" t="n"/>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
